--- a/TBEA/BusinessPerformance/Documentation/黄总的经营管控/汇总表.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/黄总的经营管控/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -1369,15 +1369,36 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1387,63 +1408,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1472,6 +1469,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1836,120 +1836,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="74" customFormat="1" ht="25.5">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:21" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
     </row>
     <row r="3" spans="1:21" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="90"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="95"/>
     </row>
     <row r="4" spans="1:21" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="94" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="90"/>
+      <c r="O4" s="95"/>
     </row>
     <row r="5" spans="1:21" s="77" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
       <c r="O5" s="76"/>
       <c r="P5" s="76"/>
       <c r="Q5" s="76"/>
@@ -1985,14 +1985,14 @@
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
     </row>
-    <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:21" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A7" s="86">
         <v>2</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
@@ -2009,7 +2009,7 @@
       <c r="A8" s="86">
         <v>3</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="98" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="84" t="s">
@@ -2031,7 +2031,7 @@
       <c r="A9" s="86">
         <v>4</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="84" t="s">
         <v>127</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="A10" s="86">
         <v>5</v>
       </c>
-      <c r="B10" s="92"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="84" t="s">
         <v>128</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="A11" s="86">
         <v>6</v>
       </c>
-      <c r="B11" s="92"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="84" t="s">
         <v>129</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="A12" s="86">
         <v>7</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="84" t="s">
         <v>130</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="A13" s="86">
         <v>8</v>
       </c>
-      <c r="B13" s="92"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="84" t="s">
         <v>131</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="A14" s="86">
         <v>9</v>
       </c>
-      <c r="B14" s="92"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="84" t="s">
         <v>132</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="A15" s="86">
         <v>10</v>
       </c>
-      <c r="B15" s="92"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="84" t="s">
         <v>133</v>
       </c>
@@ -2171,7 +2171,7 @@
       <c r="A16" s="86">
         <v>11</v>
       </c>
-      <c r="B16" s="92"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="84" t="s">
         <v>134</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="A17" s="86">
         <v>12</v>
       </c>
-      <c r="B17" s="93"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="84" t="s">
         <v>135</v>
       </c>
@@ -2211,10 +2211,10 @@
       <c r="A18" s="86">
         <v>13</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="89"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
@@ -2231,10 +2231,10 @@
       <c r="A19" s="86">
         <v>14</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
@@ -2251,10 +2251,10 @@
       <c r="A20" s="86">
         <v>15</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
@@ -2271,10 +2271,10 @@
       <c r="A21" s="86">
         <v>16</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
@@ -2291,10 +2291,10 @@
       <c r="A22" s="86">
         <v>17</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="89"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
@@ -2311,10 +2311,10 @@
       <c r="A23" s="86">
         <v>18</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
@@ -2331,10 +2331,10 @@
       <c r="A24" s="86">
         <v>19</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="89"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
@@ -2351,10 +2351,10 @@
       <c r="A25" s="86">
         <v>20</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="89"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
@@ -2371,10 +2371,10 @@
       <c r="A26" s="86">
         <v>21</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
@@ -2391,10 +2391,10 @@
       <c r="A27" s="86">
         <v>22</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
@@ -2411,10 +2411,10 @@
       <c r="A28" s="86">
         <v>23</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
@@ -2431,10 +2431,10 @@
       <c r="A29" s="86">
         <v>24</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="89"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
@@ -2451,10 +2451,10 @@
       <c r="A30" s="86">
         <v>25</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="89"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
@@ -2471,10 +2471,10 @@
       <c r="A31" s="86">
         <v>26</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="80"/>
@@ -2491,10 +2491,10 @@
       <c r="A32" s="86">
         <v>27</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="89"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="80"/>
@@ -2511,10 +2511,10 @@
       <c r="A33" s="86">
         <v>28</v>
       </c>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="89"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="80"/>
@@ -2529,27 +2529,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
@@ -2565,6 +2544,27 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,59 +2598,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="103" t="s">
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="101"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="105"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2687,11 +2687,11 @@
       <c r="O3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="101"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="111"/>
     </row>
     <row r="4" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2712,7 +2712,7 @@
       <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A5" s="102"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A6" s="102"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A7" s="102"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A8" s="102"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A9" s="102"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A10" s="102"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="101" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2849,7 +2849,7 @@
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A12" s="102"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A13" s="102"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A14" s="102"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A15" s="102"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A16" s="102"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A17" s="102"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="19" t="s">
         <v>23</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="101" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2987,7 +2987,7 @@
       <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A19" s="102"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A20" s="102"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A21" s="102"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="Q21" s="21"/>
     </row>
     <row r="22" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A22" s="102"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="15" t="s">
         <v>21</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="Q22" s="21"/>
     </row>
     <row r="23" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A23" s="102"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="Q23" s="21"/>
     </row>
     <row r="24" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A24" s="102"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="19" t="s">
         <v>23</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="Q24" s="21"/>
     </row>
     <row r="25" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="101" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3129,7 +3129,7 @@
       <c r="O25" s="13"/>
     </row>
     <row r="26" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A26" s="102"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="11" t="s">
         <v>17</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A27" s="102"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A28" s="102"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A29" s="102"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="15" t="s">
         <v>21</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A30" s="102"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="11" t="s">
         <v>22</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:17" s="26" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A31" s="102"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="19" t="s">
         <v>23</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="101" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3266,7 +3266,7 @@
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A33" s="102"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="11" t="s">
         <v>17</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="O33" s="13"/>
     </row>
     <row r="34" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A34" s="102"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="11" t="s">
         <v>28</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A35" s="102"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="11" t="s">
         <v>30</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A36" s="102"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A37" s="102"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="11" t="s">
         <v>22</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A38" s="102"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="19" t="s">
         <v>23</v>
       </c>
@@ -3384,6 +3384,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="A1:O1"/>
@@ -3392,11 +3397,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3433,55 +3433,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="39" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="120" t="s">
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="122"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="121"/>
     </row>
     <row r="3" spans="1:20" s="36" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="119"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="8" t="s">
         <v>39</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="122" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -3533,7 +3533,7 @@
       <c r="P4" s="28"/>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="112"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="41" t="s">
         <v>43</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="D5" s="39"/>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="112"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="41" t="s">
         <v>44</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="112"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="112"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="41" t="s">
         <v>46</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="112"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="41" t="s">
         <v>47</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="112"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="41" t="s">
         <v>48</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="P10" s="42"/>
     </row>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="112"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="43" t="s">
         <v>49</v>
       </c>
@@ -3602,7 +3602,7 @@
       <c r="P11" s="42"/>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="112"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="41" t="s">
         <v>50</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="T12" s="47"/>
     </row>
     <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="112"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="41" t="s">
         <v>51</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="P13" s="42"/>
     </row>
     <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="112"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="43" t="s">
         <v>52</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="112"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="41" t="s">
         <v>53</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="112"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="41" t="s">
         <v>54</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="P16" s="42"/>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="112"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="41" t="s">
         <v>55</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="P17" s="42"/>
     </row>
     <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="112"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="43" t="s">
         <v>56</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="112"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="41" t="s">
         <v>19</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="P19" s="42"/>
     </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="112"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="41" t="s">
         <v>20</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="P20" s="42"/>
     </row>
     <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="112"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="43" t="s">
         <v>57</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="P21" s="42"/>
     </row>
     <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="112"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="43" t="s">
         <v>58</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="112"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="41" t="s">
         <v>22</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="112"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="43" t="s">
         <v>59</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="P24" s="42"/>
     </row>
     <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="122" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="41" t="s">
@@ -3802,7 +3802,7 @@
       <c r="Q25" s="49"/>
     </row>
     <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="112"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="41" t="s">
         <v>43</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="Q26" s="49"/>
     </row>
     <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="112"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="41" t="s">
         <v>44</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="Q27" s="49"/>
     </row>
     <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="112"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="41" t="s">
         <v>45</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="Q28" s="49"/>
     </row>
     <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="112"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="41" t="s">
         <v>46</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="112"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="41" t="s">
         <v>47</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="112"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="41" t="s">
         <v>48</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="112"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="43" t="s">
         <v>49</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="112"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="41" t="s">
         <v>50</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="P33" s="42"/>
     </row>
     <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="112"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="41" t="s">
         <v>51</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="P34" s="42"/>
     </row>
     <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="112"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="43" t="s">
         <v>52</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="P35" s="42"/>
     </row>
     <row r="36" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="112"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="41" t="s">
         <v>53</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="P36" s="42"/>
     </row>
     <row r="37" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="112"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="41" t="s">
         <v>54</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="P37" s="42"/>
     </row>
     <row r="38" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="112"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="41" t="s">
         <v>55</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="P38" s="42"/>
     </row>
     <row r="39" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="112"/>
+      <c r="A39" s="122"/>
       <c r="B39" s="43" t="s">
         <v>56</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="P39" s="42"/>
     </row>
     <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="112"/>
+      <c r="A40" s="122"/>
       <c r="B40" s="41" t="s">
         <v>19</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="P40" s="42"/>
     </row>
     <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="112"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="41" t="s">
         <v>20</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="P41" s="42"/>
     </row>
     <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="112"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="43" t="s">
         <v>57</v>
       </c>
@@ -4014,7 +4014,7 @@
       <c r="P42" s="42"/>
     </row>
     <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="112"/>
+      <c r="A43" s="122"/>
       <c r="B43" s="43" t="s">
         <v>58</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="P43" s="42"/>
     </row>
     <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="112"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="41" t="s">
         <v>22</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="P44" s="42"/>
     </row>
     <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="112"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="43" t="s">
         <v>59</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="P45" s="42"/>
     </row>
     <row r="46" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="122" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="41" t="s">
@@ -4076,7 +4076,7 @@
       <c r="P46" s="42"/>
     </row>
     <row r="47" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="112"/>
+      <c r="A47" s="122"/>
       <c r="B47" s="41" t="s">
         <v>43</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="P47" s="42"/>
     </row>
     <row r="48" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="112"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="41" t="s">
         <v>44</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="P48" s="42"/>
     </row>
     <row r="49" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="112"/>
+      <c r="A49" s="122"/>
       <c r="B49" s="41" t="s">
         <v>45</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="P49" s="42"/>
     </row>
     <row r="50" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="112"/>
+      <c r="A50" s="122"/>
       <c r="B50" s="41" t="s">
         <v>46</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="P50" s="42"/>
     </row>
     <row r="51" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="112"/>
+      <c r="A51" s="122"/>
       <c r="B51" s="41" t="s">
         <v>47</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="P51" s="42"/>
     </row>
     <row r="52" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="112"/>
+      <c r="A52" s="122"/>
       <c r="B52" s="41" t="s">
         <v>48</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="P52" s="42"/>
     </row>
     <row r="53" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="112"/>
+      <c r="A53" s="122"/>
       <c r="B53" s="43" t="s">
         <v>49</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="P53" s="42"/>
     </row>
     <row r="54" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="112"/>
+      <c r="A54" s="122"/>
       <c r="B54" s="41" t="s">
         <v>50</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="P54" s="42"/>
     </row>
     <row r="55" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="112"/>
+      <c r="A55" s="122"/>
       <c r="B55" s="41" t="s">
         <v>51</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="P55" s="42"/>
     </row>
     <row r="56" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="112"/>
+      <c r="A56" s="122"/>
       <c r="B56" s="43" t="s">
         <v>52</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="P56" s="42"/>
     </row>
     <row r="57" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="112"/>
+      <c r="A57" s="122"/>
       <c r="B57" s="41" t="s">
         <v>53</v>
       </c>
@@ -4200,7 +4200,7 @@
       <c r="P57" s="42"/>
     </row>
     <row r="58" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="112"/>
+      <c r="A58" s="122"/>
       <c r="B58" s="41" t="s">
         <v>54</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="P58" s="42"/>
     </row>
     <row r="59" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="112"/>
+      <c r="A59" s="122"/>
       <c r="B59" s="41" t="s">
         <v>55</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="P59" s="42"/>
     </row>
     <row r="60" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="112"/>
+      <c r="A60" s="122"/>
       <c r="B60" s="43" t="s">
         <v>56</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="112"/>
+      <c r="A61" s="122"/>
       <c r="B61" s="41" t="s">
         <v>19</v>
       </c>
@@ -4247,7 +4247,7 @@
       <c r="P61" s="42"/>
     </row>
     <row r="62" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="112"/>
+      <c r="A62" s="122"/>
       <c r="B62" s="41" t="s">
         <v>20</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="P62" s="42"/>
     </row>
     <row r="63" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="112"/>
+      <c r="A63" s="122"/>
       <c r="B63" s="43" t="s">
         <v>57</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="P63" s="42"/>
     </row>
     <row r="64" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="112"/>
+      <c r="A64" s="122"/>
       <c r="B64" s="43" t="s">
         <v>58</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="P64" s="42"/>
     </row>
     <row r="65" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="112"/>
+      <c r="A65" s="122"/>
       <c r="B65" s="41" t="s">
         <v>22</v>
       </c>
@@ -4307,7 +4307,7 @@
       <c r="P65" s="42"/>
     </row>
     <row r="66" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="112"/>
+      <c r="A66" s="122"/>
       <c r="B66" s="43" t="s">
         <v>59</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="P66" s="42"/>
     </row>
     <row r="67" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="112" t="s">
+      <c r="A67" s="122" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="41" t="s">
@@ -4339,7 +4339,7 @@
       <c r="P67" s="42"/>
     </row>
     <row r="68" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="112"/>
+      <c r="A68" s="122"/>
       <c r="B68" s="41" t="s">
         <v>43</v>
       </c>
@@ -4349,7 +4349,7 @@
       <c r="P68" s="42"/>
     </row>
     <row r="69" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="112"/>
+      <c r="A69" s="122"/>
       <c r="B69" s="41" t="s">
         <v>44</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="P69" s="42"/>
     </row>
     <row r="70" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="112"/>
+      <c r="A70" s="122"/>
       <c r="B70" s="41" t="s">
         <v>45</v>
       </c>
@@ -4369,7 +4369,7 @@
       <c r="P70" s="42"/>
     </row>
     <row r="71" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="112"/>
+      <c r="A71" s="122"/>
       <c r="B71" s="41" t="s">
         <v>46</v>
       </c>
@@ -4379,7 +4379,7 @@
       <c r="P71" s="42"/>
     </row>
     <row r="72" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="112"/>
+      <c r="A72" s="122"/>
       <c r="B72" s="41" t="s">
         <v>47</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="P72" s="42"/>
     </row>
     <row r="73" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="112"/>
+      <c r="A73" s="122"/>
       <c r="B73" s="41" t="s">
         <v>48</v>
       </c>
@@ -4399,7 +4399,7 @@
       <c r="P73" s="42"/>
     </row>
     <row r="74" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="112"/>
+      <c r="A74" s="122"/>
       <c r="B74" s="43" t="s">
         <v>49</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="P74" s="42"/>
     </row>
     <row r="75" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="112"/>
+      <c r="A75" s="122"/>
       <c r="B75" s="41" t="s">
         <v>50</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="P75" s="42"/>
     </row>
     <row r="76" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="112"/>
+      <c r="A76" s="122"/>
       <c r="B76" s="41" t="s">
         <v>51</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="P76" s="42"/>
     </row>
     <row r="77" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="112"/>
+      <c r="A77" s="122"/>
       <c r="B77" s="43" t="s">
         <v>52</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="P77" s="42"/>
     </row>
     <row r="78" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="112"/>
+      <c r="A78" s="122"/>
       <c r="B78" s="41" t="s">
         <v>53</v>
       </c>
@@ -4466,7 +4466,7 @@
       <c r="P78" s="42"/>
     </row>
     <row r="79" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="112"/>
+      <c r="A79" s="122"/>
       <c r="B79" s="41" t="s">
         <v>54</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="P79" s="42"/>
     </row>
     <row r="80" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="112"/>
+      <c r="A80" s="122"/>
       <c r="B80" s="41" t="s">
         <v>55</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="P80" s="42"/>
     </row>
     <row r="81" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="112"/>
+      <c r="A81" s="122"/>
       <c r="B81" s="43" t="s">
         <v>56</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="P81" s="42"/>
     </row>
     <row r="82" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="112"/>
+      <c r="A82" s="122"/>
       <c r="B82" s="41" t="s">
         <v>19</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="P82" s="42"/>
     </row>
     <row r="83" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="112"/>
+      <c r="A83" s="122"/>
       <c r="B83" s="41" t="s">
         <v>20</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="P83" s="42"/>
     </row>
     <row r="84" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="112"/>
+      <c r="A84" s="122"/>
       <c r="B84" s="43" t="s">
         <v>57</v>
       </c>
@@ -4544,7 +4544,7 @@
       <c r="P84" s="42"/>
     </row>
     <row r="85" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="112"/>
+      <c r="A85" s="122"/>
       <c r="B85" s="43" t="s">
         <v>58</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="P85" s="42"/>
     </row>
     <row r="86" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="112"/>
+      <c r="A86" s="122"/>
       <c r="B86" s="41" t="s">
         <v>22</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="P86" s="42"/>
     </row>
     <row r="87" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="112"/>
+      <c r="A87" s="122"/>
       <c r="B87" s="43" t="s">
         <v>59</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="P87" s="42"/>
     </row>
     <row r="88" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="112" t="s">
+      <c r="A88" s="122" t="s">
         <v>63</v>
       </c>
       <c r="B88" s="41" t="s">
@@ -4606,7 +4606,7 @@
       <c r="P88" s="42"/>
     </row>
     <row r="89" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="112"/>
+      <c r="A89" s="122"/>
       <c r="B89" s="41" t="s">
         <v>43</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="P89" s="42"/>
     </row>
     <row r="90" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="112"/>
+      <c r="A90" s="122"/>
       <c r="B90" s="41" t="s">
         <v>44</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="L90" s="48"/>
     </row>
     <row r="91" spans="1:17" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="112"/>
+      <c r="A91" s="122"/>
       <c r="B91" s="41" t="s">
         <v>45</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="Q91" s="51"/>
     </row>
     <row r="92" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="112"/>
+      <c r="A92" s="122"/>
       <c r="B92" s="41" t="s">
         <v>46</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="L92" s="48"/>
     </row>
     <row r="93" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="112"/>
+      <c r="A93" s="122"/>
       <c r="B93" s="41" t="s">
         <v>47</v>
       </c>
@@ -4664,7 +4664,7 @@
       <c r="L93" s="48"/>
     </row>
     <row r="94" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="112"/>
+      <c r="A94" s="122"/>
       <c r="B94" s="41" t="s">
         <v>48</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="L94" s="48"/>
     </row>
     <row r="95" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="112"/>
+      <c r="A95" s="122"/>
       <c r="B95" s="43" t="s">
         <v>49</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="O95" s="45"/>
     </row>
     <row r="96" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="112"/>
+      <c r="A96" s="122"/>
       <c r="B96" s="41" t="s">
         <v>50</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="D96" s="39"/>
     </row>
     <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="112"/>
+      <c r="A97" s="122"/>
       <c r="B97" s="41" t="s">
         <v>51</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="D97" s="39"/>
     </row>
     <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="112"/>
+      <c r="A98" s="122"/>
       <c r="B98" s="43" t="s">
         <v>52</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="O98" s="45"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="112"/>
+      <c r="A99" s="122"/>
       <c r="B99" s="41" t="s">
         <v>54</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="D99" s="39"/>
     </row>
     <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="112"/>
+      <c r="A100" s="122"/>
       <c r="B100" s="43" t="s">
         <v>56</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="O100" s="45"/>
     </row>
     <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="112"/>
+      <c r="A101" s="122"/>
       <c r="B101" s="41" t="s">
         <v>19</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="F101" s="39"/>
     </row>
     <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="112"/>
+      <c r="A102" s="122"/>
       <c r="B102" s="41" t="s">
         <v>20</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="F102" s="39"/>
     </row>
     <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="112"/>
+      <c r="A103" s="122"/>
       <c r="B103" s="43" t="s">
         <v>57</v>
       </c>
@@ -4793,7 +4793,7 @@
       <c r="O103" s="45"/>
     </row>
     <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="112"/>
+      <c r="A104" s="122"/>
       <c r="B104" s="43" t="s">
         <v>58</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="O104" s="45"/>
     </row>
     <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="112"/>
+      <c r="A105" s="122"/>
       <c r="B105" s="41" t="s">
         <v>22</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="F105" s="39"/>
     </row>
     <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="112"/>
+      <c r="A106" s="122"/>
       <c r="B106" s="43" t="s">
         <v>59</v>
       </c>
@@ -4844,17 +4844,17 @@
     <protectedRange sqref="L25" name="区域1_2_1_1"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="A25:A45"/>
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="A67:A87"/>
+    <mergeCell ref="A88:A106"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="L2:O2"/>
-    <mergeCell ref="A4:A24"/>
-    <mergeCell ref="A25:A45"/>
-    <mergeCell ref="A46:A66"/>
-    <mergeCell ref="A67:A87"/>
-    <mergeCell ref="A88:A106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4866,7 +4866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>

--- a/TBEA/BusinessPerformance/Documentation/黄总的经营管控/汇总表.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/黄总的经营管控/汇总表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="应收账款日报" sheetId="4" r:id="rId4"/>
     <sheet name="现金流日报" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="162">
   <si>
     <t>指标</t>
   </si>
@@ -658,6 +658,10 @@
   </si>
   <si>
     <t>季度完成率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,6 +1373,30 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1384,29 +1412,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1438,7 +1445,7 @@
     <xf numFmtId="179" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,9 +1476,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1819,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
@@ -1836,120 +1840,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="74" customFormat="1" ht="25.5">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
     </row>
     <row r="2" spans="1:21" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
     </row>
     <row r="3" spans="1:21" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92" t="s">
+      <c r="C3" s="99"/>
+      <c r="D3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92" t="s">
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="95"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:21" s="75" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="93" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="93" t="s">
+      <c r="I4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="95"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:21" s="77" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
       <c r="O5" s="76"/>
       <c r="P5" s="76"/>
       <c r="Q5" s="76"/>
@@ -1989,10 +1993,10 @@
       <c r="A7" s="86">
         <v>2</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
@@ -2009,7 +2013,7 @@
       <c r="A8" s="86">
         <v>3</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="91" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="84" t="s">
@@ -2031,7 +2035,7 @@
       <c r="A9" s="86">
         <v>4</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="84" t="s">
         <v>127</v>
       </c>
@@ -2051,7 +2055,7 @@
       <c r="A10" s="86">
         <v>5</v>
       </c>
-      <c r="B10" s="99"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="84" t="s">
         <v>128</v>
       </c>
@@ -2071,7 +2075,7 @@
       <c r="A11" s="86">
         <v>6</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="84" t="s">
         <v>129</v>
       </c>
@@ -2091,7 +2095,7 @@
       <c r="A12" s="86">
         <v>7</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="84" t="s">
         <v>130</v>
       </c>
@@ -2111,7 +2115,7 @@
       <c r="A13" s="86">
         <v>8</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="84" t="s">
         <v>131</v>
       </c>
@@ -2131,7 +2135,7 @@
       <c r="A14" s="86">
         <v>9</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="84" t="s">
         <v>132</v>
       </c>
@@ -2151,7 +2155,7 @@
       <c r="A15" s="86">
         <v>10</v>
       </c>
-      <c r="B15" s="99"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="84" t="s">
         <v>133</v>
       </c>
@@ -2171,7 +2175,7 @@
       <c r="A16" s="86">
         <v>11</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="84" t="s">
         <v>134</v>
       </c>
@@ -2191,7 +2195,7 @@
       <c r="A17" s="86">
         <v>12</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="84" t="s">
         <v>135</v>
       </c>
@@ -2211,10 +2215,10 @@
       <c r="A18" s="86">
         <v>13</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="97"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
@@ -2231,10 +2235,10 @@
       <c r="A19" s="86">
         <v>14</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="97"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
@@ -2251,10 +2255,10 @@
       <c r="A20" s="86">
         <v>15</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="97"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
@@ -2271,10 +2275,10 @@
       <c r="A21" s="86">
         <v>16</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="97"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
@@ -2291,10 +2295,10 @@
       <c r="A22" s="86">
         <v>17</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="97"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="80"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
@@ -2311,10 +2315,10 @@
       <c r="A23" s="86">
         <v>18</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="97"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
@@ -2331,10 +2335,10 @@
       <c r="A24" s="86">
         <v>19</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="97"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
@@ -2351,10 +2355,10 @@
       <c r="A25" s="86">
         <v>20</v>
       </c>
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="97"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
@@ -2371,10 +2375,10 @@
       <c r="A26" s="86">
         <v>21</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="97"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
@@ -2391,10 +2395,10 @@
       <c r="A27" s="86">
         <v>22</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="97"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
@@ -2411,10 +2415,10 @@
       <c r="A28" s="86">
         <v>23</v>
       </c>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="97"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
@@ -2431,10 +2435,10 @@
       <c r="A29" s="86">
         <v>24</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="97"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
@@ -2451,10 +2455,10 @@
       <c r="A30" s="86">
         <v>25</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="97"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80"/>
@@ -2471,10 +2475,10 @@
       <c r="A31" s="86">
         <v>26</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="97"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="80"/>
@@ -2491,10 +2495,10 @@
       <c r="A32" s="86">
         <v>27</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="97"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="80"/>
@@ -2511,10 +2515,10 @@
       <c r="A33" s="86">
         <v>28</v>
       </c>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="97"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="80"/>
@@ -2529,6 +2533,27 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
@@ -2544,27 +2569,6 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,59 +2602,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="109" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="102" t="s">
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="111"/>
+      <c r="Q2" s="101"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="104"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2687,11 +2691,11 @@
       <c r="O3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="111"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="101"/>
     </row>
     <row r="4" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="102" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2712,7 +2716,7 @@
       <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A5" s="101"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -2731,7 +2735,7 @@
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A6" s="101"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
@@ -2750,7 +2754,7 @@
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A7" s="101"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
@@ -2769,7 +2773,7 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A8" s="101"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
@@ -2788,7 +2792,7 @@
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A9" s="101"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
@@ -2807,7 +2811,7 @@
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A10" s="101"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
@@ -2828,7 +2832,7 @@
       <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="102" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2849,7 +2853,7 @@
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A12" s="101"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
@@ -2868,7 +2872,7 @@
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A13" s="101"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
@@ -2887,7 +2891,7 @@
       <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A14" s="101"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
@@ -2906,7 +2910,7 @@
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A15" s="101"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
@@ -2925,7 +2929,7 @@
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A16" s="101"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
@@ -2944,7 +2948,7 @@
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A17" s="101"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="19" t="s">
         <v>23</v>
       </c>
@@ -2965,7 +2969,7 @@
       <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="102" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2987,7 +2991,7 @@
       <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A19" s="101"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
@@ -3007,7 +3011,7 @@
       <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A20" s="101"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
@@ -3027,7 +3031,7 @@
       <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A21" s="101"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
@@ -3047,7 +3051,7 @@
       <c r="Q21" s="21"/>
     </row>
     <row r="22" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A22" s="101"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="15" t="s">
         <v>21</v>
       </c>
@@ -3067,7 +3071,7 @@
       <c r="Q22" s="21"/>
     </row>
     <row r="23" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A23" s="101"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
@@ -3087,7 +3091,7 @@
       <c r="Q23" s="21"/>
     </row>
     <row r="24" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A24" s="101"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="19" t="s">
         <v>23</v>
       </c>
@@ -3108,7 +3112,7 @@
       <c r="Q24" s="21"/>
     </row>
     <row r="25" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="102" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3129,7 +3133,7 @@
       <c r="O25" s="13"/>
     </row>
     <row r="26" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A26" s="101"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="11" t="s">
         <v>17</v>
       </c>
@@ -3148,7 +3152,7 @@
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A27" s="101"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
@@ -3167,7 +3171,7 @@
       <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A28" s="101"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
@@ -3186,7 +3190,7 @@
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A29" s="101"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="15" t="s">
         <v>21</v>
       </c>
@@ -3205,7 +3209,7 @@
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A30" s="101"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="11" t="s">
         <v>22</v>
       </c>
@@ -3224,7 +3228,7 @@
       <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:17" s="26" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A31" s="101"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="19" t="s">
         <v>23</v>
       </c>
@@ -3245,7 +3249,7 @@
       <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="1:17" ht="21.95" customHeight="1">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="102" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3266,7 +3270,7 @@
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A33" s="101"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="11" t="s">
         <v>17</v>
       </c>
@@ -3285,7 +3289,7 @@
       <c r="O33" s="13"/>
     </row>
     <row r="34" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A34" s="101"/>
+      <c r="A34" s="102"/>
       <c r="B34" s="11" t="s">
         <v>28</v>
       </c>
@@ -3304,7 +3308,7 @@
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A35" s="101"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="11" t="s">
         <v>30</v>
       </c>
@@ -3323,7 +3327,7 @@
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A36" s="101"/>
+      <c r="A36" s="102"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
       </c>
@@ -3342,7 +3346,7 @@
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A37" s="101"/>
+      <c r="A37" s="102"/>
       <c r="B37" s="11" t="s">
         <v>22</v>
       </c>
@@ -3361,7 +3365,7 @@
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A38" s="101"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="19" t="s">
         <v>23</v>
       </c>
@@ -3384,11 +3388,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="A1:O1"/>
@@ -3397,6 +3396,11 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3406,10 +3410,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3420,68 +3424,70 @@
     <col min="4" max="4" width="13.625" style="38" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="38" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="38" customWidth="1"/>
-    <col min="7" max="9" width="13.625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="38" customWidth="1"/>
-    <col min="11" max="11" width="13" style="40" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="38" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="40" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="38" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="21.625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="32" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="33"/>
+    <col min="7" max="10" width="13.625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="38" customWidth="1"/>
+    <col min="12" max="12" width="13" style="40" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="38" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="40" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="21.625" style="31" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="32" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="39" customHeight="1">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:21" ht="39" customHeight="1">
+      <c r="A1" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A2" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
       <c r="K2" s="121"/>
-      <c r="L2" s="119" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
+      <c r="N2" s="121"/>
       <c r="O2" s="121"/>
-    </row>
-    <row r="3" spans="1:20" s="36" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="118"/>
+      <c r="P2" s="122"/>
+    </row>
+    <row r="3" spans="1:21" s="36" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="115"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="119"/>
       <c r="D3" s="8" t="s">
         <v>39</v>
       </c>
@@ -3495,34 +3501,37 @@
         <v>67</v>
       </c>
       <c r="H3" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="35"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="122" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="112" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -3530,59 +3539,59 @@
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="39"/>
-      <c r="P4" s="28"/>
-    </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="122"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="112"/>
       <c r="B5" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="112"/>
       <c r="B6" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="39"/>
     </row>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="122"/>
+    <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="112"/>
       <c r="B7" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="112"/>
       <c r="B8" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39"/>
     </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="112"/>
       <c r="B9" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="39"/>
     </row>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="112"/>
       <c r="B10" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="39"/>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="122"/>
+      <c r="Q10" s="42"/>
+    </row>
+    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="112"/>
       <c r="B11" s="43" t="s">
         <v>49</v>
       </c>
@@ -3593,38 +3602,39 @@
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="42"/>
-    </row>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="122"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="42"/>
+    </row>
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="112"/>
       <c r="B12" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="46"/>
       <c r="S12" s="47"/>
       <c r="T12" s="47"/>
-    </row>
-    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="122"/>
+      <c r="U12" s="47"/>
+    </row>
+    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="112"/>
       <c r="B13" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="39"/>
-      <c r="P13" s="42"/>
-    </row>
-    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="122"/>
+      <c r="Q13" s="42"/>
+    </row>
+    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="112"/>
       <c r="B14" s="43" t="s">
         <v>52</v>
       </c>
@@ -3635,43 +3645,44 @@
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="42"/>
-    </row>
-    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="122"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="42"/>
+    </row>
+    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="112"/>
       <c r="B15" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
-      <c r="P15" s="42"/>
-    </row>
-    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="122"/>
+      <c r="Q15" s="42"/>
+    </row>
+    <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="112"/>
       <c r="B16" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
-      <c r="P16" s="42"/>
-    </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="122"/>
+      <c r="Q16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="112"/>
       <c r="B17" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
-      <c r="P17" s="42"/>
-    </row>
-    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="122"/>
+      <c r="Q17" s="42"/>
+    </row>
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="112"/>
       <c r="B18" s="43" t="s">
         <v>56</v>
       </c>
@@ -3682,35 +3693,36 @@
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="42"/>
-    </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="122"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="42"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="112"/>
       <c r="B19" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
-      <c r="P19" s="42"/>
-    </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="122"/>
+      <c r="Q19" s="42"/>
+    </row>
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="112"/>
       <c r="B20" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
-      <c r="P20" s="42"/>
-    </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="122"/>
+      <c r="Q20" s="42"/>
+    </row>
+    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="112"/>
       <c r="B21" s="43" t="s">
         <v>57</v>
       </c>
@@ -3721,16 +3733,17 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="42"/>
-    </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="122"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="112"/>
       <c r="B22" s="43" t="s">
         <v>58</v>
       </c>
@@ -3741,35 +3754,36 @@
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45" t="e">
-        <f>(J3/C2)</f>
+      <c r="J22" s="45"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45" t="e">
+        <f>(K3/C2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45" t="e">
-        <f>(F4-L4)/L4</f>
+      <c r="M22" s="44"/>
+      <c r="N22" s="45" t="e">
+        <f>(F4-M4)/M4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45" t="e">
-        <f>J4/N4-1</f>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45" t="e">
+        <f>K4/O4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="42"/>
-    </row>
-    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="122"/>
+      <c r="Q22" s="42"/>
+    </row>
+    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="112"/>
       <c r="B23" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="P23" s="42"/>
-    </row>
-    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="122"/>
+      <c r="Q23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="112"/>
       <c r="B24" s="43" t="s">
         <v>59</v>
       </c>
@@ -3780,16 +3794,17 @@
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="42"/>
-    </row>
-    <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="122" t="s">
+      <c r="J24" s="45"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="112" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="41" t="s">
@@ -3797,78 +3812,78 @@
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="39"/>
-      <c r="L25" s="48"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="49"/>
-    </row>
-    <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="122"/>
+      <c r="M25" s="48"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="49"/>
+    </row>
+    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="112"/>
       <c r="B26" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="39"/>
-      <c r="L26" s="48"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="49"/>
-    </row>
-    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="122"/>
+      <c r="M26" s="48"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="49"/>
+    </row>
+    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="112"/>
       <c r="B27" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
-      <c r="L27" s="48"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="49"/>
-    </row>
-    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="122"/>
+      <c r="M27" s="48"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="49"/>
+    </row>
+    <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="112"/>
       <c r="B28" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="39"/>
-      <c r="L28" s="48"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="49"/>
-    </row>
-    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="122"/>
+      <c r="M28" s="48"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="49"/>
+    </row>
+    <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="112"/>
       <c r="B29" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="39"/>
-      <c r="L29" s="48"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="49"/>
-    </row>
-    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="122"/>
+      <c r="M29" s="48"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="49"/>
+    </row>
+    <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="112"/>
       <c r="B30" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="39"/>
-      <c r="L30" s="48"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="49"/>
-    </row>
-    <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="122"/>
+      <c r="M30" s="48"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="49"/>
+    </row>
+    <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="112"/>
       <c r="B31" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="39"/>
-      <c r="L31" s="48"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="49"/>
-    </row>
-    <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="122"/>
+      <c r="M31" s="48"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="49"/>
+    </row>
+    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="112"/>
       <c r="B32" s="43" t="s">
         <v>49</v>
       </c>
@@ -3879,35 +3894,36 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="45"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="33"/>
-    </row>
-    <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="122"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="33"/>
+    </row>
+    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="112"/>
       <c r="B33" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="39"/>
-      <c r="P33" s="42"/>
-    </row>
-    <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="122"/>
+      <c r="Q33" s="42"/>
+    </row>
+    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="112"/>
       <c r="B34" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="39"/>
-      <c r="P34" s="42"/>
-    </row>
-    <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="122"/>
+      <c r="Q34" s="42"/>
+    </row>
+    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="112"/>
       <c r="B35" s="43" t="s">
         <v>52</v>
       </c>
@@ -3918,43 +3934,44 @@
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="42"/>
-    </row>
-    <row r="36" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="122"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="42"/>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="112"/>
       <c r="B36" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="39"/>
-      <c r="P36" s="42"/>
-    </row>
-    <row r="37" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="122"/>
+      <c r="Q36" s="42"/>
+    </row>
+    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="112"/>
       <c r="B37" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="P37" s="42"/>
-    </row>
-    <row r="38" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="122"/>
+      <c r="Q37" s="42"/>
+    </row>
+    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="112"/>
       <c r="B38" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="39"/>
-      <c r="P38" s="42"/>
-    </row>
-    <row r="39" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="122"/>
+      <c r="Q38" s="42"/>
+    </row>
+    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="112"/>
       <c r="B39" s="43" t="s">
         <v>56</v>
       </c>
@@ -3965,36 +3982,37 @@
       <c r="G39" s="45"/>
       <c r="H39" s="45"/>
       <c r="I39" s="45"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="42"/>
-    </row>
-    <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="122"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="42"/>
+    </row>
+    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="112"/>
       <c r="B40" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="39"/>
       <c r="E40" s="39"/>
-      <c r="P40" s="42"/>
-    </row>
-    <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="122"/>
+      <c r="Q40" s="42"/>
+    </row>
+    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="112"/>
       <c r="B41" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
-      <c r="P41" s="42"/>
-    </row>
-    <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="122"/>
+      <c r="Q41" s="42"/>
+    </row>
+    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="112"/>
       <c r="B42" s="43" t="s">
         <v>57</v>
       </c>
@@ -4005,16 +4023,17 @@
       <c r="G42" s="45"/>
       <c r="H42" s="45"/>
       <c r="I42" s="45"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="42"/>
-    </row>
-    <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="122"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="42"/>
+    </row>
+    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="112"/>
       <c r="B43" s="43" t="s">
         <v>58</v>
       </c>
@@ -4025,26 +4044,27 @@
       <c r="G43" s="45"/>
       <c r="H43" s="45"/>
       <c r="I43" s="45"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="42"/>
-    </row>
-    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="122"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="42"/>
+    </row>
+    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="112"/>
       <c r="B44" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
-      <c r="P44" s="42"/>
-    </row>
-    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="122"/>
+      <c r="Q44" s="42"/>
+    </row>
+    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="112"/>
       <c r="B45" s="43" t="s">
         <v>59</v>
       </c>
@@ -4055,16 +4075,17 @@
       <c r="G45" s="45"/>
       <c r="H45" s="45"/>
       <c r="I45" s="45"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="42"/>
-    </row>
-    <row r="46" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="122" t="s">
+      <c r="J45" s="45"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="42"/>
+    </row>
+    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="112" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="41" t="s">
@@ -4072,68 +4093,68 @@
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="39"/>
-      <c r="L46" s="48"/>
-      <c r="P46" s="42"/>
-    </row>
-    <row r="47" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="122"/>
+      <c r="M46" s="48"/>
+      <c r="Q46" s="42"/>
+    </row>
+    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="112"/>
       <c r="B47" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="P47" s="42"/>
-    </row>
-    <row r="48" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="122"/>
+      <c r="Q47" s="42"/>
+    </row>
+    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="112"/>
       <c r="B48" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="39"/>
-      <c r="P48" s="42"/>
-    </row>
-    <row r="49" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="122"/>
+      <c r="Q48" s="42"/>
+    </row>
+    <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="112"/>
       <c r="B49" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="P49" s="42"/>
-    </row>
-    <row r="50" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="122"/>
+      <c r="Q49" s="42"/>
+    </row>
+    <row r="50" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="112"/>
       <c r="B50" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="L50" s="48"/>
-      <c r="P50" s="42"/>
-    </row>
-    <row r="51" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="122"/>
+      <c r="M50" s="48"/>
+      <c r="Q50" s="42"/>
+    </row>
+    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="112"/>
       <c r="B51" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="39"/>
-      <c r="L51" s="48"/>
-      <c r="P51" s="42"/>
-    </row>
-    <row r="52" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="122"/>
+      <c r="M51" s="48"/>
+      <c r="Q51" s="42"/>
+    </row>
+    <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="112"/>
       <c r="B52" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="L52" s="48"/>
-      <c r="P52" s="42"/>
-    </row>
-    <row r="53" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="122"/>
+      <c r="M52" s="48"/>
+      <c r="Q52" s="42"/>
+    </row>
+    <row r="53" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="112"/>
       <c r="B53" s="43" t="s">
         <v>49</v>
       </c>
@@ -4144,34 +4165,35 @@
       <c r="G53" s="45"/>
       <c r="H53" s="45"/>
       <c r="I53" s="45"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="42"/>
-    </row>
-    <row r="54" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="122"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="42"/>
+    </row>
+    <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="112"/>
       <c r="B54" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
-      <c r="P54" s="42"/>
-    </row>
-    <row r="55" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="122"/>
+      <c r="Q54" s="42"/>
+    </row>
+    <row r="55" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="112"/>
       <c r="B55" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
-      <c r="P55" s="42"/>
-    </row>
-    <row r="56" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="122"/>
+      <c r="Q55" s="42"/>
+    </row>
+    <row r="56" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="112"/>
       <c r="B56" s="43" t="s">
         <v>52</v>
       </c>
@@ -4182,43 +4204,44 @@
       <c r="G56" s="45"/>
       <c r="H56" s="45"/>
       <c r="I56" s="45"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="42"/>
-    </row>
-    <row r="57" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="122"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="42"/>
+    </row>
+    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="112"/>
       <c r="B57" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="39"/>
-      <c r="P57" s="42"/>
-    </row>
-    <row r="58" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="122"/>
+      <c r="Q57" s="42"/>
+    </row>
+    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="112"/>
       <c r="B58" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="39"/>
-      <c r="P58" s="42"/>
-    </row>
-    <row r="59" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="122"/>
+      <c r="Q58" s="42"/>
+    </row>
+    <row r="59" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="112"/>
       <c r="B59" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="P59" s="42"/>
-    </row>
-    <row r="60" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="122"/>
+      <c r="Q59" s="42"/>
+    </row>
+    <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="112"/>
       <c r="B60" s="43" t="s">
         <v>56</v>
       </c>
@@ -4229,35 +4252,36 @@
       <c r="G60" s="45"/>
       <c r="H60" s="45"/>
       <c r="I60" s="45"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="42"/>
-    </row>
-    <row r="61" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="122"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="42"/>
+    </row>
+    <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="112"/>
       <c r="B61" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="P61" s="42"/>
-    </row>
-    <row r="62" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="122"/>
+      <c r="Q61" s="42"/>
+    </row>
+    <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="112"/>
       <c r="B62" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
-      <c r="P62" s="42"/>
-    </row>
-    <row r="63" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="122"/>
+      <c r="Q62" s="42"/>
+    </row>
+    <row r="63" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="112"/>
       <c r="B63" s="43" t="s">
         <v>57</v>
       </c>
@@ -4268,16 +4292,17 @@
       <c r="G63" s="45"/>
       <c r="H63" s="45"/>
       <c r="I63" s="45"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="42"/>
-    </row>
-    <row r="64" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="122"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="42"/>
+    </row>
+    <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="112"/>
       <c r="B64" s="43" t="s">
         <v>58</v>
       </c>
@@ -4288,26 +4313,27 @@
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
       <c r="I64" s="45"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="42"/>
-    </row>
-    <row r="65" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="122"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="42"/>
+    </row>
+    <row r="65" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="112"/>
       <c r="B65" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="39"/>
       <c r="E65" s="39"/>
-      <c r="P65" s="42"/>
-    </row>
-    <row r="66" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="122"/>
+      <c r="Q65" s="42"/>
+    </row>
+    <row r="66" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="112"/>
       <c r="B66" s="43" t="s">
         <v>59</v>
       </c>
@@ -4318,16 +4344,17 @@
       <c r="G66" s="45"/>
       <c r="H66" s="45"/>
       <c r="I66" s="45"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="42"/>
-    </row>
-    <row r="67" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="122" t="s">
+      <c r="J66" s="45"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="42"/>
+    </row>
+    <row r="67" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="112" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="41" t="s">
@@ -4335,71 +4362,71 @@
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="39"/>
-      <c r="L67" s="48"/>
-      <c r="P67" s="42"/>
-    </row>
-    <row r="68" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="122"/>
+      <c r="M67" s="48"/>
+      <c r="Q67" s="42"/>
+    </row>
+    <row r="68" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="112"/>
       <c r="B68" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="39"/>
-      <c r="L68" s="48"/>
-      <c r="P68" s="42"/>
-    </row>
-    <row r="69" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="122"/>
+      <c r="M68" s="48"/>
+      <c r="Q68" s="42"/>
+    </row>
+    <row r="69" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="112"/>
       <c r="B69" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="39"/>
-      <c r="L69" s="48"/>
-      <c r="P69" s="42"/>
-    </row>
-    <row r="70" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="122"/>
+      <c r="M69" s="48"/>
+      <c r="Q69" s="42"/>
+    </row>
+    <row r="70" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="112"/>
       <c r="B70" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C70" s="38"/>
       <c r="D70" s="39"/>
-      <c r="L70" s="48"/>
-      <c r="P70" s="42"/>
-    </row>
-    <row r="71" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="122"/>
+      <c r="M70" s="48"/>
+      <c r="Q70" s="42"/>
+    </row>
+    <row r="71" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="112"/>
       <c r="B71" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="39"/>
-      <c r="L71" s="48"/>
-      <c r="P71" s="42"/>
-    </row>
-    <row r="72" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="122"/>
+      <c r="M71" s="48"/>
+      <c r="Q71" s="42"/>
+    </row>
+    <row r="72" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="112"/>
       <c r="B72" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="39"/>
-      <c r="L72" s="48"/>
-      <c r="P72" s="42"/>
-    </row>
-    <row r="73" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="122"/>
+      <c r="M72" s="48"/>
+      <c r="Q72" s="42"/>
+    </row>
+    <row r="73" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="112"/>
       <c r="B73" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C73" s="38"/>
       <c r="D73" s="39"/>
-      <c r="L73" s="48"/>
-      <c r="P73" s="42"/>
-    </row>
-    <row r="74" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="122"/>
+      <c r="M73" s="48"/>
+      <c r="Q73" s="42"/>
+    </row>
+    <row r="74" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="112"/>
       <c r="B74" s="43" t="s">
         <v>49</v>
       </c>
@@ -4410,34 +4437,35 @@
       <c r="G74" s="45"/>
       <c r="H74" s="45"/>
       <c r="I74" s="45"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="42"/>
-    </row>
-    <row r="75" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="122"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="42"/>
+    </row>
+    <row r="75" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="112"/>
       <c r="B75" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="39"/>
-      <c r="P75" s="42"/>
-    </row>
-    <row r="76" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="122"/>
+      <c r="Q75" s="42"/>
+    </row>
+    <row r="76" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="112"/>
       <c r="B76" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="39"/>
-      <c r="P76" s="42"/>
-    </row>
-    <row r="77" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="122"/>
+      <c r="Q76" s="42"/>
+    </row>
+    <row r="77" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="112"/>
       <c r="B77" s="43" t="s">
         <v>52</v>
       </c>
@@ -4448,43 +4476,44 @@
       <c r="G77" s="45"/>
       <c r="H77" s="45"/>
       <c r="I77" s="45"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="42"/>
-    </row>
-    <row r="78" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="122"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="45"/>
+      <c r="Q77" s="42"/>
+    </row>
+    <row r="78" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="112"/>
       <c r="B78" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="39"/>
-      <c r="P78" s="42"/>
-    </row>
-    <row r="79" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="122"/>
+      <c r="Q78" s="42"/>
+    </row>
+    <row r="79" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="112"/>
       <c r="B79" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C79" s="38"/>
       <c r="D79" s="39"/>
-      <c r="P79" s="42"/>
-    </row>
-    <row r="80" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="122"/>
+      <c r="Q79" s="42"/>
+    </row>
+    <row r="80" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="112"/>
       <c r="B80" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="39"/>
-      <c r="P80" s="42"/>
-    </row>
-    <row r="81" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="122"/>
+      <c r="Q80" s="42"/>
+    </row>
+    <row r="81" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="112"/>
       <c r="B81" s="43" t="s">
         <v>56</v>
       </c>
@@ -4495,36 +4524,37 @@
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="44"/>
-      <c r="O81" s="45"/>
-      <c r="P81" s="42"/>
-    </row>
-    <row r="82" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="122"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="45"/>
+      <c r="Q81" s="42"/>
+    </row>
+    <row r="82" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="112"/>
       <c r="B82" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
-      <c r="P82" s="42"/>
-    </row>
-    <row r="83" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="122"/>
+      <c r="Q82" s="42"/>
+    </row>
+    <row r="83" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="112"/>
       <c r="B83" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
-      <c r="P83" s="42"/>
-    </row>
-    <row r="84" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="122"/>
+      <c r="Q83" s="42"/>
+    </row>
+    <row r="84" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="112"/>
       <c r="B84" s="43" t="s">
         <v>57</v>
       </c>
@@ -4535,16 +4565,17 @@
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
       <c r="I84" s="45"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="44"/>
-      <c r="O84" s="45"/>
-      <c r="P84" s="42"/>
-    </row>
-    <row r="85" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="122"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="45"/>
+      <c r="Q84" s="42"/>
+    </row>
+    <row r="85" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="112"/>
       <c r="B85" s="43" t="s">
         <v>58</v>
       </c>
@@ -4555,26 +4586,27 @@
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
       <c r="I85" s="45"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="45"/>
-      <c r="P85" s="42"/>
-    </row>
-    <row r="86" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="122"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="45"/>
+      <c r="Q85" s="42"/>
+    </row>
+    <row r="86" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="112"/>
       <c r="B86" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="38"/>
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
-      <c r="P86" s="42"/>
-    </row>
-    <row r="87" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="122"/>
+      <c r="Q86" s="42"/>
+    </row>
+    <row r="87" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="112"/>
       <c r="B87" s="43" t="s">
         <v>59</v>
       </c>
@@ -4585,16 +4617,17 @@
       <c r="G87" s="45"/>
       <c r="H87" s="45"/>
       <c r="I87" s="45"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="45"/>
-      <c r="P87" s="42"/>
-    </row>
-    <row r="88" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="122" t="s">
+      <c r="J87" s="45"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="45"/>
+      <c r="Q87" s="42"/>
+    </row>
+    <row r="88" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B88" s="41" t="s">
@@ -4602,30 +4635,30 @@
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="39"/>
-      <c r="L88" s="48"/>
-      <c r="P88" s="42"/>
-    </row>
-    <row r="89" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="122"/>
+      <c r="M88" s="48"/>
+      <c r="Q88" s="42"/>
+    </row>
+    <row r="89" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="112"/>
       <c r="B89" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="39"/>
-      <c r="L89" s="48"/>
-      <c r="P89" s="42"/>
-    </row>
-    <row r="90" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="122"/>
+      <c r="M89" s="48"/>
+      <c r="Q89" s="42"/>
+    </row>
+    <row r="90" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="112"/>
       <c r="B90" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="39"/>
-      <c r="L90" s="48"/>
-    </row>
-    <row r="91" spans="1:17" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="122"/>
+      <c r="M90" s="48"/>
+    </row>
+    <row r="91" spans="1:18" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="112"/>
       <c r="B91" s="41" t="s">
         <v>45</v>
       </c>
@@ -4636,44 +4669,45 @@
       <c r="G91" s="40"/>
       <c r="H91" s="40"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="48"/>
-      <c r="M91" s="40"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="50"/>
-      <c r="Q91" s="51"/>
-    </row>
-    <row r="92" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="122"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="50"/>
+      <c r="R91" s="51"/>
+    </row>
+    <row r="92" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="112"/>
       <c r="B92" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="39"/>
-      <c r="L92" s="48"/>
-    </row>
-    <row r="93" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="122"/>
+      <c r="M92" s="48"/>
+    </row>
+    <row r="93" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="112"/>
       <c r="B93" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="39"/>
-      <c r="L93" s="48"/>
-    </row>
-    <row r="94" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="122"/>
+      <c r="M93" s="48"/>
+    </row>
+    <row r="94" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="112"/>
       <c r="B94" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="39"/>
-      <c r="L94" s="48"/>
-    </row>
-    <row r="95" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="122"/>
+      <c r="M94" s="48"/>
+    </row>
+    <row r="95" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="112"/>
       <c r="B95" s="43" t="s">
         <v>49</v>
       </c>
@@ -4684,31 +4718,32 @@
       <c r="G95" s="45"/>
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="45"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="45"/>
-    </row>
-    <row r="96" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="122"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="45"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="45"/>
+    </row>
+    <row r="96" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="112"/>
       <c r="B96" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="39"/>
     </row>
-    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="122"/>
+    <row r="97" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="112"/>
       <c r="B97" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="39"/>
     </row>
-    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="122"/>
+    <row r="98" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="112"/>
       <c r="B98" s="43" t="s">
         <v>52</v>
       </c>
@@ -4719,23 +4754,24 @@
       <c r="G98" s="45"/>
       <c r="H98" s="45"/>
       <c r="I98" s="45"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="45"/>
-      <c r="N98" s="44"/>
-      <c r="O98" s="45"/>
-    </row>
-    <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="122"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="44"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="44"/>
+      <c r="P98" s="45"/>
+    </row>
+    <row r="99" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="112"/>
       <c r="B99" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C99" s="38"/>
       <c r="D99" s="39"/>
     </row>
-    <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="122"/>
+    <row r="100" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="112"/>
       <c r="B100" s="43" t="s">
         <v>56</v>
       </c>
@@ -4746,15 +4782,16 @@
       <c r="G100" s="45"/>
       <c r="H100" s="45"/>
       <c r="I100" s="45"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="45"/>
-      <c r="N100" s="44"/>
-      <c r="O100" s="45"/>
-    </row>
-    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="122"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="45"/>
+      <c r="M100" s="44"/>
+      <c r="N100" s="45"/>
+      <c r="O100" s="44"/>
+      <c r="P100" s="45"/>
+    </row>
+    <row r="101" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="112"/>
       <c r="B101" s="41" t="s">
         <v>19</v>
       </c>
@@ -4763,8 +4800,8 @@
       <c r="E101" s="39"/>
       <c r="F101" s="39"/>
     </row>
-    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="122"/>
+    <row r="102" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="112"/>
       <c r="B102" s="41" t="s">
         <v>20</v>
       </c>
@@ -4773,8 +4810,8 @@
       <c r="E102" s="39"/>
       <c r="F102" s="39"/>
     </row>
-    <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="122"/>
+    <row r="103" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="112"/>
       <c r="B103" s="43" t="s">
         <v>57</v>
       </c>
@@ -4785,15 +4822,16 @@
       <c r="G103" s="45"/>
       <c r="H103" s="45"/>
       <c r="I103" s="45"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="44"/>
-      <c r="M103" s="45"/>
-      <c r="N103" s="44"/>
-      <c r="O103" s="45"/>
-    </row>
-    <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="122"/>
+      <c r="J103" s="45"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="45"/>
+      <c r="M103" s="44"/>
+      <c r="N103" s="45"/>
+      <c r="O103" s="44"/>
+      <c r="P103" s="45"/>
+    </row>
+    <row r="104" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="112"/>
       <c r="B104" s="43" t="s">
         <v>58</v>
       </c>
@@ -4804,15 +4842,16 @@
       <c r="G104" s="45"/>
       <c r="H104" s="45"/>
       <c r="I104" s="45"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="45"/>
-      <c r="N104" s="44"/>
-      <c r="O104" s="45"/>
-    </row>
-    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="122"/>
+      <c r="J104" s="45"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="44"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="44"/>
+      <c r="P104" s="45"/>
+    </row>
+    <row r="105" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="112"/>
       <c r="B105" s="41" t="s">
         <v>22</v>
       </c>
@@ -4820,8 +4859,8 @@
       <c r="E105" s="39"/>
       <c r="F105" s="39"/>
     </row>
-    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="122"/>
+    <row r="106" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="112"/>
       <c r="B106" s="43" t="s">
         <v>59</v>
       </c>
@@ -4832,29 +4871,30 @@
       <c r="G106" s="45"/>
       <c r="H106" s="45"/>
       <c r="I106" s="45"/>
-      <c r="J106" s="44"/>
-      <c r="K106" s="45"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="45"/>
-      <c r="N106" s="44"/>
-      <c r="O106" s="45"/>
+      <c r="J106" s="45"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="44"/>
+      <c r="N106" s="45"/>
+      <c r="O106" s="44"/>
+      <c r="P106" s="45"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="L25" name="区域1_2_1_1"/>
+    <protectedRange sqref="M25" name="区域1_2_1_1"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:P2"/>
     <mergeCell ref="A4:A24"/>
     <mergeCell ref="A25:A45"/>
     <mergeCell ref="A46:A66"/>
     <mergeCell ref="A67:A87"/>
     <mergeCell ref="A88:A106"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="L2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
